--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zxinh/Documents/GitHub/MC_data_cleaning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/VictoriaCross/Documents/GitHub/MC_data_cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACC1FE33-41C6-FB43-BA40-D2C784008DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C63C4EF-7F23-AA47-AD60-B113B840B2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10820" yWindow="6960" windowWidth="27240" windowHeight="16040" xr2:uid="{958D8FF8-CFAB-7844-AA04-81541E17E59F}"/>
+    <workbookView xWindow="-24680" yWindow="-1880" windowWidth="27240" windowHeight="14640" xr2:uid="{958D8FF8-CFAB-7844-AA04-81541E17E59F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Variables</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t xml:space="preserve">0 - I am not confident reading in English, 1 - I am confident reading simple information in English (e.g., signs and instructions), 2 - I am confident reading simple books in English (e.g., children's books), 3 - I am confident reading moderate books in English (e.g., young adult fiction), </t>
+  </si>
+  <si>
+    <t>under represented minority</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,6 +648,9 @@
       <c r="A11" t="s">
         <v>12</v>
       </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
